--- a/Voetbal/correct.xlsx
+++ b/Voetbal/correct.xlsx
@@ -17,7 +17,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt formatCode="yyyy-mm-dd" numFmtId="164"/>
+  </numFmts>
   <fonts count="5">
     <font>
       <name val="Calibri"/>
@@ -81,7 +83,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
@@ -90,6 +92,7 @@
     <xf borderId="0" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Standaard" xfId="0"/>
@@ -830,25 +833,29 @@
       </c>
       <c r="D1" s="5" t="inlineStr">
         <is>
+          <t>geboortecategorie</t>
+        </is>
+      </c>
+      <c r="E1" s="5" t="inlineStr">
+        <is>
+          <t>inzet</t>
+        </is>
+      </c>
+      <c r="F1" s="5" t="inlineStr">
+        <is>
+          <t>gewicht</t>
+        </is>
+      </c>
+      <c r="G1" s="5" t="inlineStr">
+        <is>
+          <t>lengte</t>
+        </is>
+      </c>
+      <c r="H1" s="5" t="inlineStr">
+        <is>
           <t>geboortedatum</t>
         </is>
       </c>
-      <c r="E1" s="5" t="inlineStr">
-        <is>
-          <t>inzet</t>
-        </is>
-      </c>
-      <c r="F1" s="5" t="inlineStr">
-        <is>
-          <t>gewicht</t>
-        </is>
-      </c>
-      <c r="G1" s="5" t="inlineStr">
-        <is>
-          <t>lengte</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="n"/>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -865,11 +872,11 @@
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>goed</t>
+          <t>matig</t>
         </is>
       </c>
       <c r="F2" t="n">
@@ -878,6 +885,9 @@
       <c r="G2" t="n">
         <v>123</v>
       </c>
+      <c r="H2" s="6" t="n">
+        <v>40837</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -907,6 +917,9 @@
       <c r="G3" t="n">
         <v>134</v>
       </c>
+      <c r="H3" s="6" t="n">
+        <v>40825</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -923,7 +936,7 @@
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -936,6 +949,9 @@
       <c r="G4" t="n">
         <v>116</v>
       </c>
+      <c r="H4" s="6" t="n">
+        <v>40721</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -952,11 +968,11 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>goed</t>
+          <t>zeer goed</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -965,6 +981,9 @@
       <c r="G5" t="n">
         <v>121</v>
       </c>
+      <c r="H5" s="6" t="n">
+        <v>40599</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -981,11 +1000,11 @@
         <v>6</v>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>zeer goed</t>
+          <t>matig</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -994,6 +1013,9 @@
       <c r="G6" t="n">
         <v>121</v>
       </c>
+      <c r="H6" s="6" t="n">
+        <v>40866</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1010,7 +1032,7 @@
         <v>3</v>
       </c>
       <c r="D7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -1023,6 +1045,9 @@
       <c r="G7" t="n">
         <v>124</v>
       </c>
+      <c r="H7" s="6" t="n">
+        <v>40811</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1052,6 +1077,9 @@
       <c r="G8" t="n">
         <v>118</v>
       </c>
+      <c r="H8" s="6" t="n">
+        <v>40592</v>
+      </c>
       <c r="K8" s="2" t="n"/>
     </row>
     <row r="9">
@@ -1069,11 +1097,11 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>goed</t>
+          <t>matig</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -1082,6 +1110,9 @@
       <c r="G9" t="n">
         <v>120</v>
       </c>
+      <c r="H9" s="6" t="n">
+        <v>40845</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1111,6 +1142,9 @@
       <c r="G10" t="n">
         <v>117</v>
       </c>
+      <c r="H10" s="6" t="n">
+        <v>40713</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1127,7 +1161,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -1140,6 +1174,9 @@
       <c r="G11" t="n">
         <v>116</v>
       </c>
+      <c r="H11" s="6" t="n">
+        <v>40750</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1169,6 +1206,9 @@
       <c r="G12" t="n">
         <v>122</v>
       </c>
+      <c r="H12" s="6" t="n">
+        <v>40861</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1185,7 +1225,7 @@
         <v>1</v>
       </c>
       <c r="D13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -1198,6 +1238,9 @@
       <c r="G13" t="n">
         <v>125</v>
       </c>
+      <c r="H13" s="6" t="n">
+        <v>40713</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1214,11 +1257,11 @@
         <v>4</v>
       </c>
       <c r="D14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>goed</t>
+          <t>matig</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -1227,6 +1270,9 @@
       <c r="G14" t="n">
         <v>131</v>
       </c>
+      <c r="H14" s="6" t="n">
+        <v>40829</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1243,7 +1289,7 @@
         <v>6</v>
       </c>
       <c r="D15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -1256,6 +1302,9 @@
       <c r="G15" t="n">
         <v>116</v>
       </c>
+      <c r="H15" s="6" t="n">
+        <v>40800</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1272,11 +1321,11 @@
         <v>3</v>
       </c>
       <c r="D16" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>matig</t>
+          <t>goed</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -1285,6 +1334,9 @@
       <c r="G16" t="n">
         <v>115</v>
       </c>
+      <c r="H16" s="6" t="n">
+        <v>40639</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1314,6 +1366,9 @@
       <c r="G17" t="n">
         <v>118</v>
       </c>
+      <c r="H17" s="6" t="n">
+        <v>40693</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1330,11 +1385,11 @@
         <v>1</v>
       </c>
       <c r="D18" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>zeer goed</t>
+          <t>matig</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -1343,6 +1398,9 @@
       <c r="G18" t="n">
         <v>133</v>
       </c>
+      <c r="H18" s="6" t="n">
+        <v>40833</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1359,11 +1417,11 @@
         <v>3</v>
       </c>
       <c r="D19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>goed</t>
+          <t>matig</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -1372,6 +1430,9 @@
       <c r="G19" t="n">
         <v>133</v>
       </c>
+      <c r="H19" s="6" t="n">
+        <v>40845</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1401,6 +1462,9 @@
       <c r="G20" t="n">
         <v>135</v>
       </c>
+      <c r="H20" s="6" t="n">
+        <v>40743</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1430,6 +1494,9 @@
       <c r="G21" t="n">
         <v>117</v>
       </c>
+      <c r="H21" s="6" t="n">
+        <v>40870</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1446,11 +1513,11 @@
         <v>4</v>
       </c>
       <c r="D22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>goed</t>
+          <t>matig</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -1459,6 +1526,9 @@
       <c r="G22" t="n">
         <v>118</v>
       </c>
+      <c r="H22" s="6" t="n">
+        <v>40827</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1475,11 +1545,11 @@
         <v>1</v>
       </c>
       <c r="D23" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>zeer goed</t>
+          <t>matig</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -1488,6 +1558,9 @@
       <c r="G23" t="n">
         <v>125</v>
       </c>
+      <c r="H23" s="6" t="n">
+        <v>40873</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1504,11 +1577,11 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>goed</t>
+          <t>matig</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -1517,6 +1590,9 @@
       <c r="G24" t="n">
         <v>123</v>
       </c>
+      <c r="H24" s="6" t="n">
+        <v>40894</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1533,11 +1609,11 @@
         <v>1</v>
       </c>
       <c r="D25" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>matig</t>
+          <t>goed</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -1546,6 +1622,9 @@
       <c r="G25" t="n">
         <v>127</v>
       </c>
+      <c r="H25" s="6" t="n">
+        <v>40692</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1562,11 +1641,11 @@
         <v>3</v>
       </c>
       <c r="D26" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>goed</t>
+          <t>zeer goed</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -1575,6 +1654,9 @@
       <c r="G26" t="n">
         <v>115</v>
       </c>
+      <c r="H26" s="6" t="n">
+        <v>40569</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1591,7 +1673,7 @@
         <v>4</v>
       </c>
       <c r="D27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -1604,6 +1686,9 @@
       <c r="G27" t="n">
         <v>125</v>
       </c>
+      <c r="H27" s="6" t="n">
+        <v>40733</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1620,7 +1705,7 @@
         <v>2</v>
       </c>
       <c r="D28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1633,6 +1718,9 @@
       <c r="G28" t="n">
         <v>135</v>
       </c>
+      <c r="H28" s="6" t="n">
+        <v>40653</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1649,11 +1737,11 @@
         <v>4</v>
       </c>
       <c r="D29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>zeer goed</t>
+          <t>goed</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -1662,6 +1750,9 @@
       <c r="G29" t="n">
         <v>121</v>
       </c>
+      <c r="H29" s="6" t="n">
+        <v>40707</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1691,6 +1782,9 @@
       <c r="G30" t="n">
         <v>121</v>
       </c>
+      <c r="H30" s="6" t="n">
+        <v>40636</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1720,6 +1814,9 @@
       <c r="G31" t="n">
         <v>129</v>
       </c>
+      <c r="H31" s="6" t="n">
+        <v>40560</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1749,6 +1846,9 @@
       <c r="G32" t="n">
         <v>130</v>
       </c>
+      <c r="H32" s="6" t="n">
+        <v>40568</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1765,11 +1865,11 @@
         <v>1</v>
       </c>
       <c r="D33" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>goed</t>
+          <t>matig</t>
         </is>
       </c>
       <c r="F33" t="n">
@@ -1778,6 +1878,9 @@
       <c r="G33" t="n">
         <v>125</v>
       </c>
+      <c r="H33" s="6" t="n">
+        <v>40893</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1794,11 +1897,11 @@
         <v>1</v>
       </c>
       <c r="D34" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>matig</t>
+          <t>goed</t>
         </is>
       </c>
       <c r="F34" t="n">
@@ -1807,6 +1910,9 @@
       <c r="G34" t="n">
         <v>132</v>
       </c>
+      <c r="H34" s="6" t="n">
+        <v>40757</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1823,11 +1929,11 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>matig</t>
+          <t>zeer goed</t>
         </is>
       </c>
       <c r="F35" t="n">
@@ -1836,6 +1942,9 @@
       <c r="G35" t="n">
         <v>128</v>
       </c>
+      <c r="H35" s="6" t="n">
+        <v>40564</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1865,6 +1974,9 @@
       <c r="G36" t="n">
         <v>120</v>
       </c>
+      <c r="H36" s="6" t="n">
+        <v>40855</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1881,11 +1993,11 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>matig</t>
+          <t>zeer goed</t>
         </is>
       </c>
       <c r="F37" t="n">
@@ -1894,6 +2006,9 @@
       <c r="G37" t="n">
         <v>128</v>
       </c>
+      <c r="H37" s="6" t="n">
+        <v>40580</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1910,11 +2025,11 @@
         <v>1</v>
       </c>
       <c r="D38" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>zeer goed</t>
+          <t>goed</t>
         </is>
       </c>
       <c r="F38" t="n">
@@ -1923,6 +2038,9 @@
       <c r="G38" t="n">
         <v>118</v>
       </c>
+      <c r="H38" s="6" t="n">
+        <v>40749</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1939,11 +2057,11 @@
         <v>1</v>
       </c>
       <c r="D39" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>matig</t>
+          <t>goed</t>
         </is>
       </c>
       <c r="F39" t="n">
@@ -1952,6 +2070,9 @@
       <c r="G39" t="n">
         <v>123</v>
       </c>
+      <c r="H39" s="6" t="n">
+        <v>40751</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1968,11 +2089,11 @@
         <v>3</v>
       </c>
       <c r="D40" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>goed</t>
+          <t>matig</t>
         </is>
       </c>
       <c r="F40" t="n">
@@ -1981,6 +2102,9 @@
       <c r="G40" t="n">
         <v>124</v>
       </c>
+      <c r="H40" s="6" t="n">
+        <v>40885</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1997,11 +2121,11 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>goed</t>
+          <t>matig</t>
         </is>
       </c>
       <c r="F41" t="n">
@@ -2010,6 +2134,9 @@
       <c r="G41" t="n">
         <v>125</v>
       </c>
+      <c r="H41" s="6" t="n">
+        <v>40860</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -2026,11 +2153,11 @@
         <v>5</v>
       </c>
       <c r="D42" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>zeer goed</t>
+          <t>matig</t>
         </is>
       </c>
       <c r="F42" t="n">
@@ -2039,6 +2166,9 @@
       <c r="G42" t="n">
         <v>120</v>
       </c>
+      <c r="H42" s="6" t="n">
+        <v>40860</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -2055,7 +2185,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -2068,6 +2198,9 @@
       <c r="G43" t="n">
         <v>120</v>
       </c>
+      <c r="H43" s="6" t="n">
+        <v>40668</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -2084,11 +2217,11 @@
         <v>1</v>
       </c>
       <c r="D44" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>goed</t>
+          <t>matig</t>
         </is>
       </c>
       <c r="F44" t="n">
@@ -2097,6 +2230,9 @@
       <c r="G44" t="n">
         <v>127</v>
       </c>
+      <c r="H44" s="6" t="n">
+        <v>40841</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -2113,11 +2249,11 @@
         <v>6</v>
       </c>
       <c r="D45" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>goed</t>
+          <t>zeer goed</t>
         </is>
       </c>
       <c r="F45" t="n">
@@ -2126,6 +2262,9 @@
       <c r="G45" t="n">
         <v>129</v>
       </c>
+      <c r="H45" s="6" t="n">
+        <v>40557</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -2155,6 +2294,9 @@
       <c r="G46" t="n">
         <v>118</v>
       </c>
+      <c r="H46" s="6" t="n">
+        <v>40606</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -2184,6 +2326,9 @@
       <c r="G47" t="n">
         <v>116</v>
       </c>
+      <c r="H47" s="6" t="n">
+        <v>40712</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -2200,11 +2345,11 @@
         <v>0</v>
       </c>
       <c r="D48" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>zeer goed</t>
+          <t>goed</t>
         </is>
       </c>
       <c r="F48" t="n">
@@ -2213,6 +2358,9 @@
       <c r="G48" t="n">
         <v>116</v>
       </c>
+      <c r="H48" s="6" t="n">
+        <v>40802</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -2242,6 +2390,9 @@
       <c r="G49" t="n">
         <v>121</v>
       </c>
+      <c r="H49" s="6" t="n">
+        <v>40708</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -2258,7 +2409,7 @@
         <v>1</v>
       </c>
       <c r="D50" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -2271,6 +2422,9 @@
       <c r="G50" t="n">
         <v>125</v>
       </c>
+      <c r="H50" s="6" t="n">
+        <v>40764</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -2287,7 +2441,7 @@
         <v>2</v>
       </c>
       <c r="D51" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -2300,6 +2454,9 @@
       <c r="G51" t="n">
         <v>122</v>
       </c>
+      <c r="H51" s="6" t="n">
+        <v>40746</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -2329,6 +2486,9 @@
       <c r="G52" t="n">
         <v>116</v>
       </c>
+      <c r="H52" s="6" t="n">
+        <v>40812</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -2345,11 +2505,11 @@
         <v>5</v>
       </c>
       <c r="D53" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>zeer goed</t>
+          <t>goed</t>
         </is>
       </c>
       <c r="F53" t="n">
@@ -2358,6 +2518,9 @@
       <c r="G53" t="n">
         <v>135</v>
       </c>
+      <c r="H53" s="6" t="n">
+        <v>40725</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -2387,6 +2550,9 @@
       <c r="G54" t="n">
         <v>119</v>
       </c>
+      <c r="H54" s="6" t="n">
+        <v>40545</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -2403,11 +2569,11 @@
         <v>1</v>
       </c>
       <c r="D55" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>zeer goed</t>
+          <t>goed</t>
         </is>
       </c>
       <c r="F55" t="n">
@@ -2416,6 +2582,9 @@
       <c r="G55" t="n">
         <v>121</v>
       </c>
+      <c r="H55" s="6" t="n">
+        <v>40779</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -2432,11 +2601,11 @@
         <v>1</v>
       </c>
       <c r="D56" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>goed</t>
+          <t>matig</t>
         </is>
       </c>
       <c r="F56" t="n">
@@ -2445,6 +2614,9 @@
       <c r="G56" t="n">
         <v>122</v>
       </c>
+      <c r="H56" s="6" t="n">
+        <v>40841</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -2474,6 +2646,9 @@
       <c r="G57" t="n">
         <v>118</v>
       </c>
+      <c r="H57" s="6" t="n">
+        <v>40830</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -2490,11 +2665,11 @@
         <v>3</v>
       </c>
       <c r="D58" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>matig</t>
+          <t>zeer goed</t>
         </is>
       </c>
       <c r="F58" t="n">
@@ -2503,6 +2678,9 @@
       <c r="G58" t="n">
         <v>131</v>
       </c>
+      <c r="H58" s="6" t="n">
+        <v>40597</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -2519,11 +2697,11 @@
         <v>0</v>
       </c>
       <c r="D59" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>goed</t>
+          <t>matig</t>
         </is>
       </c>
       <c r="F59" t="n">
@@ -2532,6 +2710,9 @@
       <c r="G59" t="n">
         <v>120</v>
       </c>
+      <c r="H59" s="6" t="n">
+        <v>40885</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -2548,11 +2729,11 @@
         <v>0</v>
       </c>
       <c r="D60" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>goed</t>
+          <t>zeer goed</t>
         </is>
       </c>
       <c r="F60" t="n">
@@ -2561,6 +2742,9 @@
       <c r="G60" t="n">
         <v>135</v>
       </c>
+      <c r="H60" s="6" t="n">
+        <v>40554</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -2577,7 +2761,7 @@
         <v>0</v>
       </c>
       <c r="D61" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -2590,6 +2774,9 @@
       <c r="G61" t="n">
         <v>130</v>
       </c>
+      <c r="H61" s="6" t="n">
+        <v>40635</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -2619,6 +2806,9 @@
       <c r="G62" t="n">
         <v>133</v>
       </c>
+      <c r="H62" s="6" t="n">
+        <v>40738</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -2635,11 +2825,11 @@
         <v>1</v>
       </c>
       <c r="D63" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>goed</t>
+          <t>matig</t>
         </is>
       </c>
       <c r="F63" t="n">
@@ -2648,6 +2838,9 @@
       <c r="G63" t="n">
         <v>117</v>
       </c>
+      <c r="H63" s="6" t="n">
+        <v>40877</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -2664,7 +2857,7 @@
         <v>0</v>
       </c>
       <c r="D64" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
@@ -2677,6 +2870,9 @@
       <c r="G64" t="n">
         <v>120</v>
       </c>
+      <c r="H64" s="6" t="n">
+        <v>40756</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -2693,11 +2889,11 @@
         <v>3</v>
       </c>
       <c r="D65" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>goed</t>
+          <t>matig</t>
         </is>
       </c>
       <c r="F65" t="n">
@@ -2706,6 +2902,9 @@
       <c r="G65" t="n">
         <v>122</v>
       </c>
+      <c r="H65" s="6" t="n">
+        <v>40832</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -2722,11 +2921,11 @@
         <v>0</v>
       </c>
       <c r="D66" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>zeer goed</t>
+          <t>goed</t>
         </is>
       </c>
       <c r="F66" t="n">
@@ -2735,6 +2934,9 @@
       <c r="G66" t="n">
         <v>124</v>
       </c>
+      <c r="H66" s="6" t="n">
+        <v>40778</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -2751,7 +2953,7 @@
         <v>0</v>
       </c>
       <c r="D67" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
@@ -2764,6 +2966,9 @@
       <c r="G67" t="n">
         <v>120</v>
       </c>
+      <c r="H67" s="6" t="n">
+        <v>40724</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -2780,11 +2985,11 @@
         <v>0</v>
       </c>
       <c r="D68" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>matig</t>
+          <t>goed</t>
         </is>
       </c>
       <c r="F68" t="n">
@@ -2793,6 +2998,9 @@
       <c r="G68" t="n">
         <v>120</v>
       </c>
+      <c r="H68" s="6" t="n">
+        <v>40670</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -2809,11 +3017,11 @@
         <v>1</v>
       </c>
       <c r="D69" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>matig</t>
+          <t>goed</t>
         </is>
       </c>
       <c r="F69" t="n">
@@ -2822,6 +3030,9 @@
       <c r="G69" t="n">
         <v>126</v>
       </c>
+      <c r="H69" s="6" t="n">
+        <v>40772</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -2851,6 +3062,9 @@
       <c r="G70" t="n">
         <v>122</v>
       </c>
+      <c r="H70" s="6" t="n">
+        <v>40694</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -2867,7 +3081,7 @@
         <v>0</v>
       </c>
       <c r="D71" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
@@ -2880,6 +3094,9 @@
       <c r="G71" t="n">
         <v>120</v>
       </c>
+      <c r="H71" s="6" t="n">
+        <v>40739</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -2896,11 +3113,11 @@
         <v>3</v>
       </c>
       <c r="D72" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>matig</t>
+          <t>goed</t>
         </is>
       </c>
       <c r="F72" t="n">
@@ -2909,6 +3126,9 @@
       <c r="G72" t="n">
         <v>123</v>
       </c>
+      <c r="H72" s="6" t="n">
+        <v>40798</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -2925,11 +3145,11 @@
         <v>4</v>
       </c>
       <c r="D73" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>zeer goed</t>
+          <t>goed</t>
         </is>
       </c>
       <c r="F73" t="n">
@@ -2938,6 +3158,9 @@
       <c r="G73" t="n">
         <v>135</v>
       </c>
+      <c r="H73" s="6" t="n">
+        <v>40719</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -2954,11 +3177,11 @@
         <v>2</v>
       </c>
       <c r="D74" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>zeer goed</t>
+          <t>goed</t>
         </is>
       </c>
       <c r="F74" t="n">
@@ -2967,6 +3190,9 @@
       <c r="G74" t="n">
         <v>125</v>
       </c>
+      <c r="H74" s="6" t="n">
+        <v>40661</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -2996,6 +3222,9 @@
       <c r="G75" t="n">
         <v>119</v>
       </c>
+      <c r="H75" s="6" t="n">
+        <v>40797</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -3012,11 +3241,11 @@
         <v>5</v>
       </c>
       <c r="D76" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>goed</t>
+          <t>zeer goed</t>
         </is>
       </c>
       <c r="F76" t="n">
@@ -3025,6 +3254,9 @@
       <c r="G76" t="n">
         <v>115</v>
       </c>
+      <c r="H76" s="6" t="n">
+        <v>40623</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -3054,6 +3286,9 @@
       <c r="G77" t="n">
         <v>134</v>
       </c>
+      <c r="H77" s="6" t="n">
+        <v>40834</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -3070,11 +3305,11 @@
         <v>1</v>
       </c>
       <c r="D78" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>goed</t>
+          <t>zeer goed</t>
         </is>
       </c>
       <c r="F78" t="n">
@@ -3083,6 +3318,9 @@
       <c r="G78" t="n">
         <v>118</v>
       </c>
+      <c r="H78" s="6" t="n">
+        <v>40586</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -3099,11 +3337,11 @@
         <v>4</v>
       </c>
       <c r="D79" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>zeer goed</t>
+          <t>matig</t>
         </is>
       </c>
       <c r="F79" t="n">
@@ -3112,6 +3350,9 @@
       <c r="G79" t="n">
         <v>119</v>
       </c>
+      <c r="H79" s="6" t="n">
+        <v>40895</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -3141,6 +3382,9 @@
       <c r="G80" t="n">
         <v>120</v>
       </c>
+      <c r="H80" s="6" t="n">
+        <v>40715</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -3157,7 +3401,7 @@
         <v>1</v>
       </c>
       <c r="D81" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
@@ -3170,6 +3414,9 @@
       <c r="G81" t="n">
         <v>128</v>
       </c>
+      <c r="H81" s="6" t="n">
+        <v>40722</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -3199,6 +3446,9 @@
       <c r="G82" t="n">
         <v>130</v>
       </c>
+      <c r="H82" s="6" t="n">
+        <v>40794</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -3215,7 +3465,7 @@
         <v>4</v>
       </c>
       <c r="D83" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
@@ -3228,6 +3478,9 @@
       <c r="G83" t="n">
         <v>131</v>
       </c>
+      <c r="H83" s="6" t="n">
+        <v>40730</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -3257,6 +3510,9 @@
       <c r="G84" t="n">
         <v>118</v>
       </c>
+      <c r="H84" s="6" t="n">
+        <v>40897</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -3273,11 +3529,11 @@
         <v>0</v>
       </c>
       <c r="D85" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>matig</t>
+          <t>zeer goed</t>
         </is>
       </c>
       <c r="F85" t="n">
@@ -3286,6 +3542,9 @@
       <c r="G85" t="n">
         <v>127</v>
       </c>
+      <c r="H85" s="6" t="n">
+        <v>40607</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -3315,6 +3574,9 @@
       <c r="G86" t="n">
         <v>135</v>
       </c>
+      <c r="H86" s="6" t="n">
+        <v>40594</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -3344,6 +3606,9 @@
       <c r="G87" t="n">
         <v>116</v>
       </c>
+      <c r="H87" s="6" t="n">
+        <v>40714</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -3373,6 +3638,9 @@
       <c r="G88" t="n">
         <v>119</v>
       </c>
+      <c r="H88" s="6" t="n">
+        <v>40595</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -3389,7 +3657,7 @@
         <v>1</v>
       </c>
       <c r="D89" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
@@ -3402,6 +3670,9 @@
       <c r="G89" t="n">
         <v>130</v>
       </c>
+      <c r="H89" s="6" t="n">
+        <v>40709</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -3431,6 +3702,9 @@
       <c r="G90" t="n">
         <v>122</v>
       </c>
+      <c r="H90" s="6" t="n">
+        <v>40849</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -3447,11 +3721,11 @@
         <v>0</v>
       </c>
       <c r="D91" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>goed</t>
+          <t>matig</t>
         </is>
       </c>
       <c r="F91" t="n">
@@ -3460,6 +3734,9 @@
       <c r="G91" t="n">
         <v>121</v>
       </c>
+      <c r="H91" s="6" t="n">
+        <v>40859</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -3476,11 +3753,11 @@
         <v>4</v>
       </c>
       <c r="D92" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>zeer goed</t>
+          <t>goed</t>
         </is>
       </c>
       <c r="F92" t="n">
@@ -3489,6 +3766,9 @@
       <c r="G92" t="n">
         <v>117</v>
       </c>
+      <c r="H92" s="6" t="n">
+        <v>40773</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -3505,11 +3785,11 @@
         <v>0</v>
       </c>
       <c r="D93" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>matig</t>
+          <t>goed</t>
         </is>
       </c>
       <c r="F93" t="n">
@@ -3518,6 +3798,9 @@
       <c r="G93" t="n">
         <v>123</v>
       </c>
+      <c r="H93" s="6" t="n">
+        <v>40800</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -3547,6 +3830,9 @@
       <c r="G94" t="n">
         <v>118</v>
       </c>
+      <c r="H94" s="6" t="n">
+        <v>40838</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -3563,11 +3849,11 @@
         <v>3</v>
       </c>
       <c r="D95" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>zeer goed</t>
+          <t>goed</t>
         </is>
       </c>
       <c r="F95" t="n">
@@ -3576,6 +3862,9 @@
       <c r="G95" t="n">
         <v>127</v>
       </c>
+      <c r="H95" s="6" t="n">
+        <v>40758</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -3605,6 +3894,9 @@
       <c r="G96" t="n">
         <v>135</v>
       </c>
+      <c r="H96" s="6" t="n">
+        <v>40902</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -3621,7 +3913,7 @@
         <v>0</v>
       </c>
       <c r="D97" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
@@ -3634,6 +3926,9 @@
       <c r="G97" t="n">
         <v>134</v>
       </c>
+      <c r="H97" s="6" t="n">
+        <v>40715</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -3650,11 +3945,11 @@
         <v>3</v>
       </c>
       <c r="D98" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>goed</t>
+          <t>zeer goed</t>
         </is>
       </c>
       <c r="F98" t="n">
@@ -3663,6 +3958,9 @@
       <c r="G98" t="n">
         <v>125</v>
       </c>
+      <c r="H98" s="6" t="n">
+        <v>40546</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -3679,11 +3977,11 @@
         <v>4</v>
       </c>
       <c r="D99" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>goed</t>
+          <t>zeer goed</t>
         </is>
       </c>
       <c r="F99" t="n">
@@ -3692,6 +3990,9 @@
       <c r="G99" t="n">
         <v>123</v>
       </c>
+      <c r="H99" s="6" t="n">
+        <v>40594</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -3708,11 +4009,11 @@
         <v>0</v>
       </c>
       <c r="D100" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>zeer goed</t>
+          <t>goed</t>
         </is>
       </c>
       <c r="F100" t="n">
@@ -3721,6 +4022,9 @@
       <c r="G100" t="n">
         <v>127</v>
       </c>
+      <c r="H100" s="6" t="n">
+        <v>40714</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -3737,7 +4041,7 @@
         <v>6</v>
       </c>
       <c r="D101" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
@@ -3749,6 +4053,9 @@
       </c>
       <c r="G101" t="n">
         <v>131</v>
+      </c>
+      <c r="H101" s="6" t="n">
+        <v>40800</v>
       </c>
     </row>
   </sheetData>
@@ -3792,16 +4099,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -3811,16 +4118,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -3830,16 +4137,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C4" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D4" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E4" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -3849,16 +4156,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="C5" t="n">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="D5" t="n">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="E5" t="n">
-        <v>4</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6">

--- a/Voetbal/correct.xlsx
+++ b/Voetbal/correct.xlsx
@@ -101,314 +101,8 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <chart>
-    <title>
-      <tx>
-        <rich>
-          <a:bodyPr/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:t>Scatter Chart</a:t>
-            </a:r>
-          </a:p>
-        </rich>
-      </tx>
-    </title>
-    <plotArea>
-      <scatterChart>
-        <ser>
-          <idx val="0"/>
-          <order val="0"/>
-          <spPr>
-            <a:ln>
-              <a:noFill/>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <marker>
-            <symbol val="circle"/>
-            <size val="5.2"/>
-            <spPr>
-              <a:solidFill>
-                <a:srgbClr val="4076A9"/>
-              </a:solidFill>
-              <a:ln>
-                <a:solidFill>
-                  <a:srgbClr val="4076A9"/>
-                </a:solidFill>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-          </marker>
-          <xVal>
-            <numRef>
-              <f>'gegevens'!$F$2:$F$101</f>
-            </numRef>
-          </xVal>
-          <yVal>
-            <numRef>
-              <f>'gegevens'!$G$2:$G$101</f>
-            </numRef>
-          </yVal>
-        </ser>
-        <axId val="10"/>
-        <axId val="20"/>
-      </scatterChart>
-      <valAx>
-        <axId val="10"/>
-        <scaling>
-          <orientation val="minMax"/>
-          <max val="31"/>
-          <min val="19"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>gewicht</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="20"/>
-      </valAx>
-      <valAx>
-        <axId val="20"/>
-        <scaling>
-          <orientation val="minMax"/>
-          <max val="140"/>
-          <min val="110"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>lengte</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="10"/>
-      </valAx>
-    </plotArea>
-    <plotVisOnly val="1"/>
-    <dispBlanksAs val="gap"/>
-  </chart>
-</chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <style val="10"/>
-  <chart>
-    <title>
-      <tx>
-        <rich>
-          <a:bodyPr/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:t>goals per position per birth cat</a:t>
-            </a:r>
-          </a:p>
-        </rich>
-      </tx>
-    </title>
-    <plotArea>
-      <barChart>
-        <barDir val="col"/>
-        <grouping val="clustered"/>
-        <ser>
-          <idx val="0"/>
-          <order val="0"/>
-          <tx>
-            <strRef>
-              <f>'grafiek'!B1</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <cat>
-            <numRef>
-              <f>'grafiek'!$A$1:$A$6</f>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'grafiek'!$B$2:$B$6</f>
-            </numRef>
-          </val>
-        </ser>
-        <ser>
-          <idx val="1"/>
-          <order val="1"/>
-          <tx>
-            <strRef>
-              <f>'grafiek'!C1</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <cat>
-            <numRef>
-              <f>'grafiek'!$A$1:$A$6</f>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'grafiek'!$C$2:$C$6</f>
-            </numRef>
-          </val>
-        </ser>
-        <ser>
-          <idx val="2"/>
-          <order val="2"/>
-          <tx>
-            <strRef>
-              <f>'grafiek'!D1</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <cat>
-            <numRef>
-              <f>'grafiek'!$A$1:$A$6</f>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'grafiek'!$D$2:$D$6</f>
-            </numRef>
-          </val>
-        </ser>
-        <ser>
-          <idx val="3"/>
-          <order val="3"/>
-          <tx>
-            <strRef>
-              <f>'grafiek'!E1</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <cat>
-            <numRef>
-              <f>'grafiek'!$A$1:$A$6</f>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'grafiek'!$E$2:$E$6</f>
-            </numRef>
-          </val>
-        </ser>
-        <gapWidth val="150"/>
-        <axId val="10"/>
-        <axId val="100"/>
-      </barChart>
-      <catAx>
-        <axId val="10"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>position</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="100"/>
-        <lblOffset val="100"/>
-      </catAx>
-      <valAx>
-        <axId val="100"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>goals</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="10"/>
-      </valAx>
-    </plotArea>
-    <legend>
-      <legendPos val="r"/>
-    </legend>
-    <plotVisOnly val="1"/>
-    <dispBlanksAs val="gap"/>
-  </chart>
-</chartSpace>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="oneCell">
     <from>
       <col>2</col>
@@ -430,7 +124,7 @@
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip r:embed="rId3"/>
+        <a:blip r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -450,50 +144,6 @@
     </pic>
     <clientData/>
   </twoCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>11</col>
-      <colOff>0</colOff>
-      <row>6</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="5400000" cy="2700000"/>
-    <graphicFrame>
-      <nvGraphicFramePr>
-        <cNvPr id="1" name="Chart 1"/>
-        <cNvGraphicFramePr/>
-      </nvGraphicFramePr>
-      <xfrm/>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </graphicFrame>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>2</col>
-      <colOff>0</colOff>
-      <row>23</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="5400000" cy="2700000"/>
-    <graphicFrame>
-      <nvGraphicFramePr>
-        <cNvPr id="2" name="Chart 2"/>
-        <cNvGraphicFramePr/>
-      </nvGraphicFramePr>
-      <xfrm/>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </graphicFrame>
-    <clientData/>
-  </oneCellAnchor>
 </wsDr>
 </file>
 
@@ -886,7 +536,7 @@
         <v>123</v>
       </c>
       <c r="H2" s="6" t="n">
-        <v>40837</v>
+        <v>40846</v>
       </c>
     </row>
     <row r="3">
@@ -904,11 +554,11 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>matig</t>
+          <t>goed</t>
         </is>
       </c>
       <c r="F3" t="n">
@@ -918,7 +568,7 @@
         <v>134</v>
       </c>
       <c r="H3" s="6" t="n">
-        <v>40825</v>
+        <v>40728</v>
       </c>
     </row>
     <row r="4">
@@ -936,7 +586,7 @@
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -950,7 +600,7 @@
         <v>116</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>40721</v>
+        <v>40746</v>
       </c>
     </row>
     <row r="5">
@@ -982,7 +632,7 @@
         <v>121</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>40599</v>
+        <v>40620</v>
       </c>
     </row>
     <row r="6">
@@ -1000,11 +650,11 @@
         <v>6</v>
       </c>
       <c r="D6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>matig</t>
+          <t>goed</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -1014,7 +664,7 @@
         <v>121</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>40866</v>
+        <v>40707</v>
       </c>
     </row>
     <row r="7">
@@ -1032,7 +682,7 @@
         <v>3</v>
       </c>
       <c r="D7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -1046,7 +696,7 @@
         <v>124</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>40811</v>
+        <v>40724</v>
       </c>
     </row>
     <row r="8">
@@ -1064,11 +714,11 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>zeer goed</t>
+          <t>goed</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -1078,7 +728,7 @@
         <v>118</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>40592</v>
+        <v>40775</v>
       </c>
       <c r="K8" s="2" t="n"/>
     </row>
@@ -1097,11 +747,11 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>matig</t>
+          <t>zeer goed</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -1111,7 +761,7 @@
         <v>120</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>40845</v>
+        <v>40571</v>
       </c>
     </row>
     <row r="10">
@@ -1129,11 +779,11 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>goed</t>
+          <t>zeer goed</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -1143,7 +793,7 @@
         <v>117</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>40713</v>
+        <v>40601</v>
       </c>
     </row>
     <row r="11">
@@ -1161,7 +811,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -1175,7 +825,7 @@
         <v>116</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>40750</v>
+        <v>40672</v>
       </c>
     </row>
     <row r="12">
@@ -1193,11 +843,11 @@
         <v>1</v>
       </c>
       <c r="D12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>matig</t>
+          <t>goed</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -1207,7 +857,7 @@
         <v>122</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>40861</v>
+        <v>40746</v>
       </c>
     </row>
     <row r="13">
@@ -1239,7 +889,7 @@
         <v>125</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>40713</v>
+        <v>40704</v>
       </c>
     </row>
     <row r="14">
@@ -1257,11 +907,11 @@
         <v>4</v>
       </c>
       <c r="D14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>matig</t>
+          <t>goed</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -1271,7 +921,7 @@
         <v>131</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>40829</v>
+        <v>40731</v>
       </c>
     </row>
     <row r="15">
@@ -1289,7 +939,7 @@
         <v>6</v>
       </c>
       <c r="D15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -1303,7 +953,7 @@
         <v>116</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>40800</v>
+        <v>40682</v>
       </c>
     </row>
     <row r="16">
@@ -1321,11 +971,11 @@
         <v>3</v>
       </c>
       <c r="D16" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>goed</t>
+          <t>matig</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -1335,7 +985,7 @@
         <v>115</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>40639</v>
+        <v>40863</v>
       </c>
     </row>
     <row r="17">
@@ -1353,7 +1003,7 @@
         <v>3</v>
       </c>
       <c r="D17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -1367,7 +1017,7 @@
         <v>118</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>40693</v>
+        <v>40782</v>
       </c>
     </row>
     <row r="18">
@@ -1385,11 +1035,11 @@
         <v>1</v>
       </c>
       <c r="D18" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>matig</t>
+          <t>zeer goed</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -1399,7 +1049,7 @@
         <v>133</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>40833</v>
+        <v>40565</v>
       </c>
     </row>
     <row r="19">
@@ -1417,11 +1067,11 @@
         <v>3</v>
       </c>
       <c r="D19" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>matig</t>
+          <t>goed</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -1431,7 +1081,7 @@
         <v>133</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>40845</v>
+        <v>40689</v>
       </c>
     </row>
     <row r="20">
@@ -1449,7 +1099,7 @@
         <v>1</v>
       </c>
       <c r="D20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -1463,7 +1113,7 @@
         <v>135</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>40743</v>
+        <v>40661</v>
       </c>
     </row>
     <row r="21">
@@ -1495,7 +1145,7 @@
         <v>117</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>40870</v>
+        <v>40819</v>
       </c>
     </row>
     <row r="22">
@@ -1513,11 +1163,11 @@
         <v>4</v>
       </c>
       <c r="D22" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>matig</t>
+          <t>goed</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -1527,7 +1177,7 @@
         <v>118</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>40827</v>
+        <v>40669</v>
       </c>
     </row>
     <row r="23">
@@ -1545,11 +1195,11 @@
         <v>1</v>
       </c>
       <c r="D23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>matig</t>
+          <t>goed</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -1559,7 +1209,7 @@
         <v>125</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>40873</v>
+        <v>40735</v>
       </c>
     </row>
     <row r="24">
@@ -1577,11 +1227,11 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>matig</t>
+          <t>goed</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -1591,7 +1241,7 @@
         <v>123</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>40894</v>
+        <v>40797</v>
       </c>
     </row>
     <row r="25">
@@ -1609,11 +1259,11 @@
         <v>1</v>
       </c>
       <c r="D25" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>goed</t>
+          <t>matig</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -1623,7 +1273,7 @@
         <v>127</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>40692</v>
+        <v>40836</v>
       </c>
     </row>
     <row r="26">
@@ -1655,7 +1305,7 @@
         <v>115</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>40569</v>
+        <v>40616</v>
       </c>
     </row>
     <row r="27">
@@ -1673,11 +1323,11 @@
         <v>4</v>
       </c>
       <c r="D27" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>goed</t>
+          <t>zeer goed</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -1687,7 +1337,7 @@
         <v>125</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>40733</v>
+        <v>40600</v>
       </c>
     </row>
     <row r="28">
@@ -1705,11 +1355,11 @@
         <v>2</v>
       </c>
       <c r="D28" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>goed</t>
+          <t>matig</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -1719,7 +1369,7 @@
         <v>135</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>40653</v>
+        <v>40884</v>
       </c>
     </row>
     <row r="29">
@@ -1737,7 +1387,7 @@
         <v>4</v>
       </c>
       <c r="D29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -1751,7 +1401,7 @@
         <v>121</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>40707</v>
+        <v>40761</v>
       </c>
     </row>
     <row r="30">
@@ -1769,7 +1419,7 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -1783,7 +1433,7 @@
         <v>121</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>40636</v>
+        <v>40796</v>
       </c>
     </row>
     <row r="31">
@@ -1801,11 +1451,11 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>zeer goed</t>
+          <t>goed</t>
         </is>
       </c>
       <c r="F31" t="n">
@@ -1815,7 +1465,7 @@
         <v>129</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>40560</v>
+        <v>40781</v>
       </c>
     </row>
     <row r="32">
@@ -1833,11 +1483,11 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>zeer goed</t>
+          <t>matig</t>
         </is>
       </c>
       <c r="F32" t="n">
@@ -1847,7 +1497,7 @@
         <v>130</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>40568</v>
+        <v>40882</v>
       </c>
     </row>
     <row r="33">
@@ -1865,11 +1515,11 @@
         <v>1</v>
       </c>
       <c r="D33" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>matig</t>
+          <t>goed</t>
         </is>
       </c>
       <c r="F33" t="n">
@@ -1879,7 +1529,7 @@
         <v>125</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>40893</v>
+        <v>40737</v>
       </c>
     </row>
     <row r="34">
@@ -1897,7 +1547,7 @@
         <v>1</v>
       </c>
       <c r="D34" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -1911,7 +1561,7 @@
         <v>132</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>40757</v>
+        <v>40644</v>
       </c>
     </row>
     <row r="35">
@@ -1929,11 +1579,11 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>zeer goed</t>
+          <t>matig</t>
         </is>
       </c>
       <c r="F35" t="n">
@@ -1943,7 +1593,7 @@
         <v>128</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>40564</v>
+        <v>40899</v>
       </c>
     </row>
     <row r="36">
@@ -1961,11 +1611,11 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>matig</t>
+          <t>zeer goed</t>
         </is>
       </c>
       <c r="F36" t="n">
@@ -1975,7 +1625,7 @@
         <v>120</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>40855</v>
+        <v>40572</v>
       </c>
     </row>
     <row r="37">
@@ -1993,11 +1643,11 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>zeer goed</t>
+          <t>goed</t>
         </is>
       </c>
       <c r="F37" t="n">
@@ -2007,7 +1657,7 @@
         <v>128</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>40580</v>
+        <v>40635</v>
       </c>
     </row>
     <row r="38">
@@ -2025,11 +1675,11 @@
         <v>1</v>
       </c>
       <c r="D38" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>goed</t>
+          <t>zeer goed</t>
         </is>
       </c>
       <c r="F38" t="n">
@@ -2039,7 +1689,7 @@
         <v>118</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>40749</v>
+        <v>40546</v>
       </c>
     </row>
     <row r="39">
@@ -2089,11 +1739,11 @@
         <v>3</v>
       </c>
       <c r="D40" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>matig</t>
+          <t>goed</t>
         </is>
       </c>
       <c r="F40" t="n">
@@ -2103,7 +1753,7 @@
         <v>124</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>40885</v>
+        <v>40713</v>
       </c>
     </row>
     <row r="41">
@@ -2121,11 +1771,11 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>matig</t>
+          <t>goed</t>
         </is>
       </c>
       <c r="F41" t="n">
@@ -2135,7 +1785,7 @@
         <v>125</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>40860</v>
+        <v>40754</v>
       </c>
     </row>
     <row r="42">
@@ -2153,11 +1803,11 @@
         <v>5</v>
       </c>
       <c r="D42" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>matig</t>
+          <t>zeer goed</t>
         </is>
       </c>
       <c r="F42" t="n">
@@ -2167,7 +1817,7 @@
         <v>120</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>40860</v>
+        <v>40621</v>
       </c>
     </row>
     <row r="43">
@@ -2185,7 +1835,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -2199,7 +1849,7 @@
         <v>120</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>40668</v>
+        <v>40749</v>
       </c>
     </row>
     <row r="44">
@@ -2217,11 +1867,11 @@
         <v>1</v>
       </c>
       <c r="D44" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>matig</t>
+          <t>goed</t>
         </is>
       </c>
       <c r="F44" t="n">
@@ -2231,7 +1881,7 @@
         <v>127</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>40841</v>
+        <v>40753</v>
       </c>
     </row>
     <row r="45">
@@ -2249,11 +1899,11 @@
         <v>6</v>
       </c>
       <c r="D45" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>zeer goed</t>
+          <t>goed</t>
         </is>
       </c>
       <c r="F45" t="n">
@@ -2263,7 +1913,7 @@
         <v>129</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>40557</v>
+        <v>40751</v>
       </c>
     </row>
     <row r="46">
@@ -2281,11 +1931,11 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>zeer goed</t>
+          <t>goed</t>
         </is>
       </c>
       <c r="F46" t="n">
@@ -2295,7 +1945,7 @@
         <v>118</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>40606</v>
+        <v>40765</v>
       </c>
     </row>
     <row r="47">
@@ -2313,7 +1963,7 @@
         <v>2</v>
       </c>
       <c r="D47" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -2327,7 +1977,7 @@
         <v>116</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>40712</v>
+        <v>40795</v>
       </c>
     </row>
     <row r="48">
@@ -2345,11 +1995,11 @@
         <v>0</v>
       </c>
       <c r="D48" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>goed</t>
+          <t>matig</t>
         </is>
       </c>
       <c r="F48" t="n">
@@ -2359,7 +2009,7 @@
         <v>116</v>
       </c>
       <c r="H48" s="6" t="n">
-        <v>40802</v>
+        <v>40908</v>
       </c>
     </row>
     <row r="49">
@@ -2377,11 +2027,11 @@
         <v>0</v>
       </c>
       <c r="D49" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>goed</t>
+          <t>zeer goed</t>
         </is>
       </c>
       <c r="F49" t="n">
@@ -2391,7 +2041,7 @@
         <v>121</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>40708</v>
+        <v>40559</v>
       </c>
     </row>
     <row r="50">
@@ -2423,7 +2073,7 @@
         <v>125</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>40764</v>
+        <v>40751</v>
       </c>
     </row>
     <row r="51">
@@ -2441,11 +2091,11 @@
         <v>2</v>
       </c>
       <c r="D51" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>goed</t>
+          <t>zeer goed</t>
         </is>
       </c>
       <c r="F51" t="n">
@@ -2455,7 +2105,7 @@
         <v>122</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>40746</v>
+        <v>40621</v>
       </c>
     </row>
     <row r="52">
@@ -2473,11 +2123,11 @@
         <v>2</v>
       </c>
       <c r="D52" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>goed</t>
+          <t>zeer goed</t>
         </is>
       </c>
       <c r="F52" t="n">
@@ -2487,7 +2137,7 @@
         <v>116</v>
       </c>
       <c r="H52" s="6" t="n">
-        <v>40812</v>
+        <v>40610</v>
       </c>
     </row>
     <row r="53">
@@ -2505,7 +2155,7 @@
         <v>5</v>
       </c>
       <c r="D53" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -2519,7 +2169,7 @@
         <v>135</v>
       </c>
       <c r="H53" s="6" t="n">
-        <v>40725</v>
+        <v>40681</v>
       </c>
     </row>
     <row r="54">
@@ -2537,11 +2187,11 @@
         <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>zeer goed</t>
+          <t>goed</t>
         </is>
       </c>
       <c r="F54" t="n">
@@ -2551,7 +2201,7 @@
         <v>119</v>
       </c>
       <c r="H54" s="6" t="n">
-        <v>40545</v>
+        <v>40779</v>
       </c>
     </row>
     <row r="55">
@@ -2569,11 +2219,11 @@
         <v>1</v>
       </c>
       <c r="D55" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>goed</t>
+          <t>matig</t>
         </is>
       </c>
       <c r="F55" t="n">
@@ -2583,7 +2233,7 @@
         <v>121</v>
       </c>
       <c r="H55" s="6" t="n">
-        <v>40779</v>
+        <v>40895</v>
       </c>
     </row>
     <row r="56">
@@ -2601,11 +2251,11 @@
         <v>1</v>
       </c>
       <c r="D56" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>matig</t>
+          <t>goed</t>
         </is>
       </c>
       <c r="F56" t="n">
@@ -2615,7 +2265,7 @@
         <v>122</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>40841</v>
+        <v>40809</v>
       </c>
     </row>
     <row r="57">
@@ -2647,7 +2297,7 @@
         <v>118</v>
       </c>
       <c r="H57" s="6" t="n">
-        <v>40830</v>
+        <v>40861</v>
       </c>
     </row>
     <row r="58">
@@ -2665,11 +2315,11 @@
         <v>3</v>
       </c>
       <c r="D58" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>zeer goed</t>
+          <t>goed</t>
         </is>
       </c>
       <c r="F58" t="n">
@@ -2679,7 +2329,7 @@
         <v>131</v>
       </c>
       <c r="H58" s="6" t="n">
-        <v>40597</v>
+        <v>40684</v>
       </c>
     </row>
     <row r="59">
@@ -2697,11 +2347,11 @@
         <v>0</v>
       </c>
       <c r="D59" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>matig</t>
+          <t>goed</t>
         </is>
       </c>
       <c r="F59" t="n">
@@ -2711,7 +2361,7 @@
         <v>120</v>
       </c>
       <c r="H59" s="6" t="n">
-        <v>40885</v>
+        <v>40793</v>
       </c>
     </row>
     <row r="60">
@@ -2729,11 +2379,11 @@
         <v>0</v>
       </c>
       <c r="D60" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>zeer goed</t>
+          <t>goed</t>
         </is>
       </c>
       <c r="F60" t="n">
@@ -2743,7 +2393,7 @@
         <v>135</v>
       </c>
       <c r="H60" s="6" t="n">
-        <v>40554</v>
+        <v>40711</v>
       </c>
     </row>
     <row r="61">
@@ -2761,11 +2411,11 @@
         <v>0</v>
       </c>
       <c r="D61" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>goed</t>
+          <t>matig</t>
         </is>
       </c>
       <c r="F61" t="n">
@@ -2775,7 +2425,7 @@
         <v>130</v>
       </c>
       <c r="H61" s="6" t="n">
-        <v>40635</v>
+        <v>40908</v>
       </c>
     </row>
     <row r="62">
@@ -2793,11 +2443,11 @@
         <v>3</v>
       </c>
       <c r="D62" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>goed</t>
+          <t>matig</t>
         </is>
       </c>
       <c r="F62" t="n">
@@ -2807,7 +2457,7 @@
         <v>133</v>
       </c>
       <c r="H62" s="6" t="n">
-        <v>40738</v>
+        <v>40818</v>
       </c>
     </row>
     <row r="63">
@@ -2825,11 +2475,11 @@
         <v>1</v>
       </c>
       <c r="D63" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>matig</t>
+          <t>goed</t>
         </is>
       </c>
       <c r="F63" t="n">
@@ -2839,7 +2489,7 @@
         <v>117</v>
       </c>
       <c r="H63" s="6" t="n">
-        <v>40877</v>
+        <v>40701</v>
       </c>
     </row>
     <row r="64">
@@ -2857,11 +2507,11 @@
         <v>0</v>
       </c>
       <c r="D64" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>goed</t>
+          <t>matig</t>
         </is>
       </c>
       <c r="F64" t="n">
@@ -2871,7 +2521,7 @@
         <v>120</v>
       </c>
       <c r="H64" s="6" t="n">
-        <v>40756</v>
+        <v>40831</v>
       </c>
     </row>
     <row r="65">
@@ -2889,11 +2539,11 @@
         <v>3</v>
       </c>
       <c r="D65" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>matig</t>
+          <t>zeer goed</t>
         </is>
       </c>
       <c r="F65" t="n">
@@ -2903,7 +2553,7 @@
         <v>122</v>
       </c>
       <c r="H65" s="6" t="n">
-        <v>40832</v>
+        <v>40589</v>
       </c>
     </row>
     <row r="66">
@@ -2921,11 +2571,11 @@
         <v>0</v>
       </c>
       <c r="D66" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>goed</t>
+          <t>zeer goed</t>
         </is>
       </c>
       <c r="F66" t="n">
@@ -2935,7 +2585,7 @@
         <v>124</v>
       </c>
       <c r="H66" s="6" t="n">
-        <v>40778</v>
+        <v>40552</v>
       </c>
     </row>
     <row r="67">
@@ -2953,11 +2603,11 @@
         <v>0</v>
       </c>
       <c r="D67" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>goed</t>
+          <t>zeer goed</t>
         </is>
       </c>
       <c r="F67" t="n">
@@ -2967,7 +2617,7 @@
         <v>120</v>
       </c>
       <c r="H67" s="6" t="n">
-        <v>40724</v>
+        <v>40588</v>
       </c>
     </row>
     <row r="68">
@@ -2985,7 +2635,7 @@
         <v>0</v>
       </c>
       <c r="D68" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
@@ -2999,7 +2649,7 @@
         <v>120</v>
       </c>
       <c r="H68" s="6" t="n">
-        <v>40670</v>
+        <v>40787</v>
       </c>
     </row>
     <row r="69">
@@ -3017,7 +2667,7 @@
         <v>1</v>
       </c>
       <c r="D69" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
@@ -3031,7 +2681,7 @@
         <v>126</v>
       </c>
       <c r="H69" s="6" t="n">
-        <v>40772</v>
+        <v>40721</v>
       </c>
     </row>
     <row r="70">
@@ -3049,7 +2699,7 @@
         <v>0</v>
       </c>
       <c r="D70" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
@@ -3063,7 +2713,7 @@
         <v>122</v>
       </c>
       <c r="H70" s="6" t="n">
-        <v>40694</v>
+        <v>40805</v>
       </c>
     </row>
     <row r="71">
@@ -3095,7 +2745,7 @@
         <v>120</v>
       </c>
       <c r="H71" s="6" t="n">
-        <v>40739</v>
+        <v>40764</v>
       </c>
     </row>
     <row r="72">
@@ -3113,7 +2763,7 @@
         <v>3</v>
       </c>
       <c r="D72" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
@@ -3127,7 +2777,7 @@
         <v>123</v>
       </c>
       <c r="H72" s="6" t="n">
-        <v>40798</v>
+        <v>40659</v>
       </c>
     </row>
     <row r="73">
@@ -3145,11 +2795,11 @@
         <v>4</v>
       </c>
       <c r="D73" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>goed</t>
+          <t>zeer goed</t>
         </is>
       </c>
       <c r="F73" t="n">
@@ -3159,7 +2809,7 @@
         <v>135</v>
       </c>
       <c r="H73" s="6" t="n">
-        <v>40719</v>
+        <v>40560</v>
       </c>
     </row>
     <row r="74">
@@ -3177,11 +2827,11 @@
         <v>2</v>
       </c>
       <c r="D74" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>goed</t>
+          <t>zeer goed</t>
         </is>
       </c>
       <c r="F74" t="n">
@@ -3191,7 +2841,7 @@
         <v>125</v>
       </c>
       <c r="H74" s="6" t="n">
-        <v>40661</v>
+        <v>40574</v>
       </c>
     </row>
     <row r="75">
@@ -3209,11 +2859,11 @@
         <v>5</v>
       </c>
       <c r="D75" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>goed</t>
+          <t>zeer goed</t>
         </is>
       </c>
       <c r="F75" t="n">
@@ -3223,7 +2873,7 @@
         <v>119</v>
       </c>
       <c r="H75" s="6" t="n">
-        <v>40797</v>
+        <v>40560</v>
       </c>
     </row>
     <row r="76">
@@ -3241,11 +2891,11 @@
         <v>5</v>
       </c>
       <c r="D76" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>zeer goed</t>
+          <t>goed</t>
         </is>
       </c>
       <c r="F76" t="n">
@@ -3255,7 +2905,7 @@
         <v>115</v>
       </c>
       <c r="H76" s="6" t="n">
-        <v>40623</v>
+        <v>40741</v>
       </c>
     </row>
     <row r="77">
@@ -3273,11 +2923,11 @@
         <v>0</v>
       </c>
       <c r="D77" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>matig</t>
+          <t>zeer goed</t>
         </is>
       </c>
       <c r="F77" t="n">
@@ -3287,7 +2937,7 @@
         <v>134</v>
       </c>
       <c r="H77" s="6" t="n">
-        <v>40834</v>
+        <v>40574</v>
       </c>
     </row>
     <row r="78">
@@ -3319,7 +2969,7 @@
         <v>118</v>
       </c>
       <c r="H78" s="6" t="n">
-        <v>40586</v>
+        <v>40550</v>
       </c>
     </row>
     <row r="79">
@@ -3337,11 +2987,11 @@
         <v>4</v>
       </c>
       <c r="D79" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>matig</t>
+          <t>zeer goed</t>
         </is>
       </c>
       <c r="F79" t="n">
@@ -3351,7 +3001,7 @@
         <v>119</v>
       </c>
       <c r="H79" s="6" t="n">
-        <v>40895</v>
+        <v>40561</v>
       </c>
     </row>
     <row r="80">
@@ -3369,7 +3019,7 @@
         <v>2</v>
       </c>
       <c r="D80" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
@@ -3383,7 +3033,7 @@
         <v>120</v>
       </c>
       <c r="H80" s="6" t="n">
-        <v>40715</v>
+        <v>40814</v>
       </c>
     </row>
     <row r="81">
@@ -3401,11 +3051,11 @@
         <v>1</v>
       </c>
       <c r="D81" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>goed</t>
+          <t>zeer goed</t>
         </is>
       </c>
       <c r="F81" t="n">
@@ -3415,7 +3065,7 @@
         <v>128</v>
       </c>
       <c r="H81" s="6" t="n">
-        <v>40722</v>
+        <v>40612</v>
       </c>
     </row>
     <row r="82">
@@ -3447,7 +3097,7 @@
         <v>130</v>
       </c>
       <c r="H82" s="6" t="n">
-        <v>40794</v>
+        <v>40733</v>
       </c>
     </row>
     <row r="83">
@@ -3465,7 +3115,7 @@
         <v>4</v>
       </c>
       <c r="D83" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
@@ -3479,7 +3129,7 @@
         <v>131</v>
       </c>
       <c r="H83" s="6" t="n">
-        <v>40730</v>
+        <v>40686</v>
       </c>
     </row>
     <row r="84">
@@ -3497,11 +3147,11 @@
         <v>0</v>
       </c>
       <c r="D84" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>matig</t>
+          <t>zeer goed</t>
         </is>
       </c>
       <c r="F84" t="n">
@@ -3511,7 +3161,7 @@
         <v>118</v>
       </c>
       <c r="H84" s="6" t="n">
-        <v>40897</v>
+        <v>40603</v>
       </c>
     </row>
     <row r="85">
@@ -3543,7 +3193,7 @@
         <v>127</v>
       </c>
       <c r="H85" s="6" t="n">
-        <v>40607</v>
+        <v>40550</v>
       </c>
     </row>
     <row r="86">
@@ -3561,11 +3211,11 @@
         <v>2</v>
       </c>
       <c r="D86" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>zeer goed</t>
+          <t>matig</t>
         </is>
       </c>
       <c r="F86" t="n">
@@ -3575,7 +3225,7 @@
         <v>135</v>
       </c>
       <c r="H86" s="6" t="n">
-        <v>40594</v>
+        <v>40832</v>
       </c>
     </row>
     <row r="87">
@@ -3593,7 +3243,7 @@
         <v>1</v>
       </c>
       <c r="D87" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
@@ -3607,7 +3257,7 @@
         <v>116</v>
       </c>
       <c r="H87" s="6" t="n">
-        <v>40714</v>
+        <v>40799</v>
       </c>
     </row>
     <row r="88">
@@ -3625,11 +3275,11 @@
         <v>0</v>
       </c>
       <c r="D88" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>zeer goed</t>
+          <t>goed</t>
         </is>
       </c>
       <c r="F88" t="n">
@@ -3639,7 +3289,7 @@
         <v>119</v>
       </c>
       <c r="H88" s="6" t="n">
-        <v>40595</v>
+        <v>40779</v>
       </c>
     </row>
     <row r="89">
@@ -3671,7 +3321,7 @@
         <v>130</v>
       </c>
       <c r="H89" s="6" t="n">
-        <v>40709</v>
+        <v>40696</v>
       </c>
     </row>
     <row r="90">
@@ -3703,7 +3353,7 @@
         <v>122</v>
       </c>
       <c r="H90" s="6" t="n">
-        <v>40849</v>
+        <v>40874</v>
       </c>
     </row>
     <row r="91">
@@ -3735,7 +3385,7 @@
         <v>121</v>
       </c>
       <c r="H91" s="6" t="n">
-        <v>40859</v>
+        <v>40823</v>
       </c>
     </row>
     <row r="92">
@@ -3767,7 +3417,7 @@
         <v>117</v>
       </c>
       <c r="H92" s="6" t="n">
-        <v>40773</v>
+        <v>40816</v>
       </c>
     </row>
     <row r="93">
@@ -3785,7 +3435,7 @@
         <v>0</v>
       </c>
       <c r="D93" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
@@ -3799,7 +3449,7 @@
         <v>123</v>
       </c>
       <c r="H93" s="6" t="n">
-        <v>40800</v>
+        <v>40722</v>
       </c>
     </row>
     <row r="94">
@@ -3817,11 +3467,11 @@
         <v>1</v>
       </c>
       <c r="D94" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>matig</t>
+          <t>goed</t>
         </is>
       </c>
       <c r="F94" t="n">
@@ -3831,7 +3481,7 @@
         <v>118</v>
       </c>
       <c r="H94" s="6" t="n">
-        <v>40838</v>
+        <v>40636</v>
       </c>
     </row>
     <row r="95">
@@ -3849,11 +3499,11 @@
         <v>3</v>
       </c>
       <c r="D95" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>goed</t>
+          <t>zeer goed</t>
         </is>
       </c>
       <c r="F95" t="n">
@@ -3863,7 +3513,7 @@
         <v>127</v>
       </c>
       <c r="H95" s="6" t="n">
-        <v>40758</v>
+        <v>40580</v>
       </c>
     </row>
     <row r="96">
@@ -3895,7 +3545,7 @@
         <v>135</v>
       </c>
       <c r="H96" s="6" t="n">
-        <v>40902</v>
+        <v>40887</v>
       </c>
     </row>
     <row r="97">
@@ -3927,7 +3577,7 @@
         <v>134</v>
       </c>
       <c r="H97" s="6" t="n">
-        <v>40715</v>
+        <v>40642</v>
       </c>
     </row>
     <row r="98">
@@ -3945,11 +3595,11 @@
         <v>3</v>
       </c>
       <c r="D98" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>zeer goed</t>
+          <t>matig</t>
         </is>
       </c>
       <c r="F98" t="n">
@@ -3959,7 +3609,7 @@
         <v>125</v>
       </c>
       <c r="H98" s="6" t="n">
-        <v>40546</v>
+        <v>40897</v>
       </c>
     </row>
     <row r="99">
@@ -3977,11 +3627,11 @@
         <v>4</v>
       </c>
       <c r="D99" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>zeer goed</t>
+          <t>goed</t>
         </is>
       </c>
       <c r="F99" t="n">
@@ -3991,7 +3641,7 @@
         <v>123</v>
       </c>
       <c r="H99" s="6" t="n">
-        <v>40594</v>
+        <v>40697</v>
       </c>
     </row>
     <row r="100">
@@ -4009,11 +3659,11 @@
         <v>0</v>
       </c>
       <c r="D100" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>goed</t>
+          <t>zeer goed</t>
         </is>
       </c>
       <c r="F100" t="n">
@@ -4023,7 +3673,7 @@
         <v>127</v>
       </c>
       <c r="H100" s="6" t="n">
-        <v>40714</v>
+        <v>40618</v>
       </c>
     </row>
     <row r="101">
@@ -4055,7 +3705,7 @@
         <v>131</v>
       </c>
       <c r="H101" s="6" t="n">
-        <v>40800</v>
+        <v>40770</v>
       </c>
     </row>
   </sheetData>
@@ -4070,124 +3720,14 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C1" t="n">
-        <v>2</v>
-      </c>
-      <c r="D1" t="n">
-        <v>3</v>
-      </c>
-      <c r="E1" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>staart</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>3</v>
-      </c>
-      <c r="C2" t="n">
-        <v>6</v>
-      </c>
-      <c r="D2" t="n">
-        <v>4</v>
-      </c>
-      <c r="E2" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>linkervleuger</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>9</v>
-      </c>
-      <c r="C3" t="n">
-        <v>7</v>
-      </c>
-      <c r="D3" t="n">
-        <v>11</v>
-      </c>
-      <c r="E3" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>rechtervleuger</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>4</v>
-      </c>
-      <c r="C4" t="n">
-        <v>8</v>
-      </c>
-      <c r="D4" t="n">
-        <v>12</v>
-      </c>
-      <c r="E4" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>piloot</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>11</v>
-      </c>
-      <c r="C5" t="n">
-        <v>7</v>
-      </c>
-      <c r="D5" t="n">
-        <v>32</v>
-      </c>
-      <c r="E5" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>keeper</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>0</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup horizontalDpi="4294967293" orientation="portrait" paperSize="9" verticalDpi="0"/>
   <drawing r:id="rId1"/>
